--- a/excel/DatosEdu.xlsx
+++ b/excel/DatosEdu.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="462" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="32">
   <si>
     <t>Lugar de Partida</t>
   </si>
@@ -62,7 +62,7 @@
     <t>Habitual</t>
   </si>
   <si>
-    <t>Mañana</t>
+    <t>Manana</t>
   </si>
   <si>
     <t>Despejado</t>
@@ -74,13 +74,10 @@
     <t>Buena</t>
   </si>
   <si>
-    <t>EntreSemana</t>
+    <t>Laboral</t>
   </si>
   <si>
     <t>Carretera</t>
-  </si>
-  <si>
-    <t>Despejado </t>
   </si>
   <si>
     <t>Media Jornada</t>
@@ -89,7 +86,7 @@
     <t>Finde</t>
   </si>
   <si>
-    <t>Medio</t>
+    <t>Alto</t>
   </si>
   <si>
     <t>Nublado</t>
@@ -99,9 +96,6 @@
   </si>
   <si>
     <t>Tarde</t>
-  </si>
-  <si>
-    <t>Poco</t>
   </si>
   <si>
     <t>Tormentoso</t>
@@ -117,12 +111,6 @@
   </si>
   <si>
     <t>30</t>
-  </si>
-  <si>
-    <t>Laboral</t>
-  </si>
-  <si>
-    <t>Alto</t>
   </si>
 </sst>
 </file>
@@ -212,7 +200,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -257,10 +245,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -292,8 +276,8 @@
   </sheetPr>
   <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J56" activeCellId="0" sqref="J56:J136"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -303,12 +287,12 @@
     <col collapsed="false" hidden="false" max="4" min="3" style="1" width="10.5"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.6259259259259"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.5"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="18.8740740740741"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="18.1296296296296"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="13.8777777777778"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.5"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="14.2555555555556"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="1" width="8.6037037037037"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.33703703703704"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="2" width="10.5"/>
     <col collapsed="false" hidden="false" max="254" min="12" style="1" width="8.87037037037037"/>
+    <col collapsed="false" hidden="false" max="1025" min="255" style="0" width="8.53333333333333"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -566,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>17</v>
@@ -601,7 +585,7 @@
         <v>15</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>17</v>
@@ -738,7 +722,7 @@
         <v>14</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>16</v>
@@ -750,7 +734,7 @@
         <v>18</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>20</v>
@@ -773,7 +757,7 @@
         <v>14</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>16</v>
@@ -785,7 +769,7 @@
         <v>18</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>20</v>
@@ -808,10 +792,10 @@
         <v>14</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>17</v>
@@ -820,7 +804,7 @@
         <v>18</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>20</v>
@@ -843,10 +827,10 @@
         <v>14</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>17</v>
@@ -855,7 +839,7 @@
         <v>18</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>20</v>
@@ -878,7 +862,7 @@
         <v>14</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>16</v>
@@ -890,7 +874,7 @@
         <v>18</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J18" s="8" t="s">
         <v>20</v>
@@ -913,7 +897,7 @@
         <v>14</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>16</v>
@@ -925,7 +909,7 @@
         <v>18</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J19" s="8" t="s">
         <v>20</v>
@@ -948,7 +932,7 @@
         <v>14</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>16</v>
@@ -960,7 +944,7 @@
         <v>18</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J20" s="8" t="s">
         <v>20</v>
@@ -980,10 +964,10 @@
         <v>75</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>16</v>
@@ -995,7 +979,7 @@
         <v>18</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J21" s="8" t="s">
         <v>20</v>
@@ -1015,13 +999,13 @@
         <v>75</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>17</v>
@@ -1030,7 +1014,7 @@
         <v>18</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>20</v>
@@ -1050,13 +1034,13 @@
         <v>75</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>17</v>
@@ -1065,7 +1049,7 @@
         <v>18</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>20</v>
@@ -1085,13 +1069,13 @@
         <v>75</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>17</v>
@@ -1100,7 +1084,7 @@
         <v>18</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J24" s="8" t="s">
         <v>20</v>
@@ -1120,13 +1104,13 @@
         <v>75</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>17</v>
@@ -1135,7 +1119,7 @@
         <v>18</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J25" s="8" t="s">
         <v>20</v>
@@ -1155,13 +1139,13 @@
         <v>75</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>17</v>
@@ -1170,7 +1154,7 @@
         <v>18</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J26" s="8" t="s">
         <v>20</v>
@@ -1190,13 +1174,13 @@
         <v>75</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>17</v>
@@ -1205,7 +1189,7 @@
         <v>18</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J27" s="8" t="s">
         <v>20</v>
@@ -1225,13 +1209,13 @@
         <v>75</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>17</v>
@@ -1240,7 +1224,7 @@
         <v>18</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J28" s="8" t="s">
         <v>20</v>
@@ -1260,13 +1244,13 @@
         <v>75</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>17</v>
@@ -1275,7 +1259,7 @@
         <v>18</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J29" s="8" t="s">
         <v>20</v>
@@ -1295,13 +1279,13 @@
         <v>75</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>17</v>
@@ -1310,7 +1294,7 @@
         <v>18</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J30" s="8" t="s">
         <v>20</v>
@@ -1330,13 +1314,13 @@
         <v>75</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>17</v>
@@ -1345,7 +1329,7 @@
         <v>18</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>20</v>
@@ -1365,13 +1349,13 @@
         <v>75</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>17</v>
@@ -1380,7 +1364,7 @@
         <v>18</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>20</v>
@@ -1400,13 +1384,13 @@
         <v>75</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>17</v>
@@ -1415,7 +1399,7 @@
         <v>18</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>20</v>
@@ -1435,13 +1419,13 @@
         <v>75</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>17</v>
@@ -1450,7 +1434,7 @@
         <v>18</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J34" s="8" t="s">
         <v>20</v>
@@ -1470,13 +1454,13 @@
         <v>75</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>17</v>
@@ -1485,7 +1469,7 @@
         <v>18</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J35" s="8" t="s">
         <v>20</v>
@@ -1505,13 +1489,13 @@
         <v>75</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>17</v>
@@ -1520,7 +1504,7 @@
         <v>18</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J36" s="8" t="s">
         <v>20</v>
@@ -1540,13 +1524,13 @@
         <v>75</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>17</v>
@@ -1555,7 +1539,7 @@
         <v>18</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J37" s="8" t="s">
         <v>20</v>
@@ -1575,13 +1559,13 @@
         <v>75</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>17</v>
@@ -1590,7 +1574,7 @@
         <v>18</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J38" s="8" t="s">
         <v>20</v>
@@ -1610,13 +1594,13 @@
         <v>75</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>17</v>
@@ -1625,7 +1609,7 @@
         <v>18</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J39" s="8" t="s">
         <v>20</v>
@@ -1645,13 +1629,13 @@
         <v>75</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>17</v>
@@ -1660,7 +1644,7 @@
         <v>18</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J40" s="8" t="s">
         <v>20</v>
@@ -1680,13 +1664,13 @@
         <v>75</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>17</v>
@@ -1695,7 +1679,7 @@
         <v>18</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J41" s="8" t="s">
         <v>20</v>
@@ -1715,14 +1699,14 @@
         <v>75</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E42" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F42" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="G42" s="4" t="s">
         <v>17</v>
       </c>
@@ -1730,7 +1714,7 @@
         <v>18</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J42" s="8" t="s">
         <v>20</v>
@@ -1750,14 +1734,14 @@
         <v>75</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E43" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F43" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="G43" s="4" t="s">
         <v>17</v>
       </c>
@@ -1765,7 +1749,7 @@
         <v>18</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J43" s="8" t="s">
         <v>20</v>
@@ -1785,13 +1769,13 @@
         <v>75</v>
       </c>
       <c r="D44" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="F44" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>17</v>
@@ -1800,7 +1784,7 @@
         <v>18</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J44" s="8" t="s">
         <v>20</v>
@@ -1820,13 +1804,13 @@
         <v>75</v>
       </c>
       <c r="D45" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E45" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="F45" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>17</v>
@@ -1835,7 +1819,7 @@
         <v>18</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J45" s="8" t="s">
         <v>20</v>
@@ -1855,13 +1839,13 @@
         <v>75</v>
       </c>
       <c r="D46" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E46" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="F46" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>17</v>
@@ -1870,7 +1854,7 @@
         <v>18</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J46" s="8" t="s">
         <v>20</v>
@@ -1890,13 +1874,13 @@
         <v>75</v>
       </c>
       <c r="D47" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E47" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="F47" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>17</v>
@@ -1905,7 +1889,7 @@
         <v>18</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J47" s="8" t="s">
         <v>20</v>
@@ -1925,13 +1909,13 @@
         <v>75</v>
       </c>
       <c r="D48" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="F48" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>17</v>
@@ -1940,7 +1924,7 @@
         <v>18</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J48" s="8" t="s">
         <v>20</v>
@@ -1960,13 +1944,13 @@
         <v>75</v>
       </c>
       <c r="D49" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E49" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="F49" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>17</v>
@@ -1975,7 +1959,7 @@
         <v>18</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J49" s="8" t="s">
         <v>20</v>
@@ -1995,13 +1979,13 @@
         <v>75</v>
       </c>
       <c r="D50" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E50" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="F50" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>17</v>
@@ -2010,7 +1994,7 @@
         <v>18</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J50" s="8" t="s">
         <v>20</v>
@@ -2030,13 +2014,13 @@
         <v>75</v>
       </c>
       <c r="D51" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E51" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="F51" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>17</v>
@@ -2045,7 +2029,7 @@
         <v>18</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J51" s="8" t="s">
         <v>20</v>
@@ -2065,13 +2049,13 @@
         <v>75</v>
       </c>
       <c r="D52" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E52" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="F52" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>17</v>
@@ -2080,7 +2064,7 @@
         <v>18</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J52" s="8" t="s">
         <v>20</v>
@@ -2100,13 +2084,13 @@
         <v>75</v>
       </c>
       <c r="D53" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E53" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="F53" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>17</v>
@@ -2115,7 +2099,7 @@
         <v>18</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J53" s="8" t="s">
         <v>20</v>
@@ -2135,13 +2119,13 @@
         <v>75</v>
       </c>
       <c r="D54" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E54" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="F54" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>17</v>
@@ -2150,7 +2134,7 @@
         <v>18</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J54" s="8" t="s">
         <v>20</v>
@@ -2174,13 +2158,13 @@
     </row>
     <row r="56" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>14</v>
@@ -2198,19 +2182,21 @@
         <v>18</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J56" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K56" s="5"/>
+      <c r="K56" s="5" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C57" s="5" t="n">
         <v>30</v>
@@ -2231,22 +2217,24 @@
         <v>18</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J57" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K57" s="5"/>
+      <c r="K57" s="5" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>14</v>
@@ -2264,22 +2252,24 @@
         <v>18</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J58" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K58" s="5"/>
+      <c r="K58" s="5" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>14</v>
@@ -2297,22 +2287,24 @@
         <v>18</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J59" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K59" s="5"/>
+      <c r="K59" s="5" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>14</v>
@@ -2330,22 +2322,24 @@
         <v>18</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J60" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K60" s="5"/>
+      <c r="K60" s="5" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>14</v>
@@ -2363,22 +2357,24 @@
         <v>18</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J61" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K61" s="5"/>
+      <c r="K61" s="5" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>14</v>
@@ -2396,22 +2392,24 @@
         <v>18</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J62" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K62" s="5"/>
+      <c r="K62" s="5" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>14</v>
@@ -2429,22 +2427,24 @@
         <v>18</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J63" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K63" s="5"/>
+      <c r="K63" s="5" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>14</v>
@@ -2462,22 +2462,24 @@
         <v>18</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J64" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K64" s="5"/>
+      <c r="K64" s="5" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>14</v>
@@ -2495,28 +2497,30 @@
         <v>18</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J65" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K65" s="5"/>
+      <c r="K65" s="5" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>16</v>
@@ -2528,19 +2532,21 @@
         <v>18</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J66" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K66" s="5"/>
+      <c r="K66" s="5" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C67" s="5" t="n">
         <v>30</v>
@@ -2549,7 +2555,7 @@
         <v>14</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>16</v>
@@ -2561,19 +2567,21 @@
         <v>18</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J67" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K67" s="5"/>
+      <c r="K67" s="5" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C68" s="5" t="n">
         <v>30</v>
@@ -2582,7 +2590,7 @@
         <v>14</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>16</v>
@@ -2594,19 +2602,21 @@
         <v>18</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J68" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K68" s="5"/>
+      <c r="K68" s="5" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C69" s="5" t="n">
         <v>30</v>
@@ -2615,7 +2625,7 @@
         <v>14</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>16</v>
@@ -2627,19 +2637,21 @@
         <v>18</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J69" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K69" s="5"/>
+      <c r="K69" s="5" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C70" s="5" t="n">
         <v>30</v>
@@ -2648,7 +2660,7 @@
         <v>14</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>16</v>
@@ -2660,19 +2672,21 @@
         <v>18</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J70" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K70" s="5"/>
+      <c r="K70" s="5" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C71" s="5" t="n">
         <v>30</v>
@@ -2681,7 +2695,7 @@
         <v>14</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>16</v>
@@ -2693,19 +2707,21 @@
         <v>18</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J71" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K71" s="5"/>
+      <c r="K71" s="5" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C72" s="5" t="n">
         <v>30</v>
@@ -2714,7 +2730,7 @@
         <v>14</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>16</v>
@@ -2726,28 +2742,30 @@
         <v>18</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J72" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K72" s="5"/>
+      <c r="K72" s="5" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>16</v>
@@ -2759,28 +2777,30 @@
         <v>18</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J73" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K73" s="5"/>
+      <c r="K73" s="5" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>16</v>
@@ -2792,28 +2812,30 @@
         <v>18</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J74" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K74" s="5"/>
+      <c r="K74" s="5" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>16</v>
@@ -2825,31 +2847,33 @@
         <v>18</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J75" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K75" s="5"/>
+      <c r="K75" s="5" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>17</v>
@@ -2858,31 +2882,33 @@
         <v>18</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J76" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K76" s="5"/>
+      <c r="K76" s="5" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>17</v>
@@ -2891,64 +2917,68 @@
         <v>18</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J77" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K77" s="5"/>
+      <c r="K77" s="5" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C78" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J78" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K78" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="D78" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I78" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J78" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K78" s="5"/>
     </row>
     <row r="79" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>17</v>
@@ -2957,31 +2987,33 @@
         <v>18</v>
       </c>
       <c r="I79" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J79" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K79" s="5" t="n">
         <v>34</v>
       </c>
-      <c r="J79" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K79" s="5"/>
     </row>
     <row r="80" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>17</v>
@@ -2990,19 +3022,21 @@
         <v>18</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J80" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K80" s="5"/>
+      <c r="K80" s="5" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C81" s="5" t="n">
         <v>30</v>
@@ -3011,10 +3045,10 @@
         <v>14</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>17</v>
@@ -3023,31 +3057,33 @@
         <v>18</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J81" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K81" s="5"/>
+      <c r="K81" s="5" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>17</v>
@@ -3056,31 +3092,33 @@
         <v>18</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J82" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K82" s="5"/>
+      <c r="K82" s="5" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>17</v>
@@ -3089,64 +3127,68 @@
         <v>18</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J83" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K83" s="5"/>
+      <c r="K83" s="5" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F84" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J84" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K84" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="G84" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H84" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I84" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J84" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K84" s="5"/>
     </row>
     <row r="85" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>17</v>
@@ -3155,31 +3197,33 @@
         <v>18</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J85" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K85" s="5"/>
+      <c r="K85" s="5" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>17</v>
@@ -3188,31 +3232,33 @@
         <v>18</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J86" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K86" s="5"/>
+      <c r="K86" s="5" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>17</v>
@@ -3221,19 +3267,21 @@
         <v>18</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J87" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K87" s="5"/>
+      <c r="K87" s="5" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C88" s="5" t="n">
         <v>30</v>
@@ -3242,10 +3290,10 @@
         <v>14</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>17</v>
@@ -3254,64 +3302,68 @@
         <v>18</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J88" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K88" s="5"/>
+      <c r="K88" s="5" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F89" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J89" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K89" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="G89" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J89" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K89" s="5"/>
     </row>
     <row r="90" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>17</v>
@@ -3320,19 +3372,21 @@
         <v>18</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J90" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K90" s="5"/>
+      <c r="K90" s="5" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C91" s="5" t="n">
         <v>30</v>
@@ -3341,10 +3395,10 @@
         <v>14</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>17</v>
@@ -3353,31 +3407,33 @@
         <v>18</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J91" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K91" s="5"/>
+      <c r="K91" s="5" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G92" s="4" t="s">
         <v>17</v>
@@ -3386,31 +3442,33 @@
         <v>18</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J92" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K92" s="5"/>
+      <c r="K92" s="5" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>17</v>
@@ -3419,97 +3477,103 @@
         <v>18</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J93" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K93" s="5"/>
+      <c r="K93" s="5" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B94" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J94" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K94" s="5" t="n">
         <v>32</v>
       </c>
-      <c r="C94" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G94" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J94" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K94" s="5"/>
     </row>
     <row r="95" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C95" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J95" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K95" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="D95" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H95" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I95" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J95" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K95" s="5"/>
     </row>
     <row r="96" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>17</v>
@@ -3518,28 +3582,30 @@
         <v>18</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J96" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K96" s="5"/>
+      <c r="K96" s="5" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>16</v>
@@ -3551,28 +3617,30 @@
         <v>18</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J97" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K97" s="5"/>
+      <c r="K97" s="5" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>16</v>
@@ -3584,19 +3652,21 @@
         <v>18</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J98" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K98" s="5"/>
+      <c r="K98" s="5" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C99" s="5" t="n">
         <v>30</v>
@@ -3605,7 +3675,7 @@
         <v>14</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>16</v>
@@ -3617,28 +3687,30 @@
         <v>18</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J99" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K99" s="5"/>
+      <c r="K99" s="5" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>16</v>
@@ -3650,28 +3722,30 @@
         <v>18</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J100" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K100" s="5"/>
+      <c r="K100" s="5" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>16</v>
@@ -3683,25 +3757,27 @@
         <v>18</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J101" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K101" s="5"/>
+      <c r="K101" s="5" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E102" s="4" t="s">
         <v>15</v>
@@ -3716,25 +3792,27 @@
         <v>18</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J102" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K102" s="5"/>
+      <c r="K102" s="5" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>15</v>
@@ -3749,25 +3827,27 @@
         <v>18</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J103" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K103" s="5"/>
+      <c r="K103" s="5" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>15</v>
@@ -3782,31 +3862,33 @@
         <v>18</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J104" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K104" s="5"/>
+      <c r="K104" s="5" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G105" s="4" t="s">
         <v>17</v>
@@ -3815,31 +3897,33 @@
         <v>18</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J105" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K105" s="5"/>
+      <c r="K105" s="5" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G106" s="4" t="s">
         <v>17</v>
@@ -3848,31 +3932,33 @@
         <v>18</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J106" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K106" s="5"/>
+      <c r="K106" s="5" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E107" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G107" s="4" t="s">
         <v>17</v>
@@ -3881,31 +3967,33 @@
         <v>18</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J107" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K107" s="5"/>
+      <c r="K107" s="5" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>17</v>
@@ -3914,31 +4002,33 @@
         <v>18</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J108" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K108" s="5"/>
+      <c r="K108" s="5" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G109" s="4" t="s">
         <v>17</v>
@@ -3947,31 +4037,33 @@
         <v>18</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J109" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K109" s="5"/>
+      <c r="K109" s="5" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G110" s="4" t="s">
         <v>17</v>
@@ -3980,97 +4072,103 @@
         <v>18</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J110" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K110" s="5"/>
+      <c r="K110" s="5" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B111" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J111" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K111" s="5" t="n">
         <v>32</v>
       </c>
-      <c r="C111" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G111" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H111" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I111" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J111" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K111" s="5"/>
     </row>
     <row r="112" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C112" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J112" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K112" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="D112" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G112" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H112" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I112" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J112" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K112" s="5"/>
     </row>
     <row r="113" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G113" s="4" t="s">
         <v>17</v>
@@ -4079,31 +4177,33 @@
         <v>18</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J113" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K113" s="5"/>
+      <c r="K113" s="5" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G114" s="4" t="s">
         <v>17</v>
@@ -4112,31 +4212,33 @@
         <v>18</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J114" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K114" s="5"/>
+      <c r="K114" s="5" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C115" s="5" t="n">
         <v>30</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G115" s="4" t="s">
         <v>17</v>
@@ -4145,31 +4247,33 @@
         <v>18</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J115" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K115" s="5"/>
+      <c r="K115" s="5" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C116" s="5" t="n">
         <v>30</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G116" s="4" t="s">
         <v>17</v>
@@ -4178,31 +4282,33 @@
         <v>18</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J116" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K116" s="5"/>
+      <c r="K116" s="5" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C117" s="5" t="n">
         <v>30</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G117" s="4" t="s">
         <v>17</v>
@@ -4211,31 +4317,33 @@
         <v>18</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J117" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K117" s="5"/>
+      <c r="K117" s="5" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C118" s="5" t="n">
         <v>30</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G118" s="4" t="s">
         <v>17</v>
@@ -4244,31 +4352,33 @@
         <v>18</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J118" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K118" s="5"/>
+      <c r="K118" s="5" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C119" s="5" t="n">
         <v>30</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G119" s="4" t="s">
         <v>17</v>
@@ -4277,31 +4387,33 @@
         <v>18</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J119" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K119" s="5"/>
+      <c r="K119" s="5" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C120" s="5" t="n">
         <v>30</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G120" s="4" t="s">
         <v>17</v>
@@ -4310,31 +4422,33 @@
         <v>18</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J120" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K120" s="5"/>
+      <c r="K120" s="5" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C121" s="5" t="n">
         <v>30</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G121" s="4" t="s">
         <v>17</v>
@@ -4343,32 +4457,34 @@
         <v>18</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J121" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K121" s="5"/>
+      <c r="K121" s="5" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C122" s="5" t="n">
         <v>30</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E122" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F122" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F122" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="G122" s="4" t="s">
         <v>17</v>
       </c>
@@ -4376,31 +4492,33 @@
         <v>18</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J122" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K122" s="5"/>
+      <c r="K122" s="5" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C123" s="5" t="n">
         <v>30</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G123" s="4" t="s">
         <v>17</v>
@@ -4409,64 +4527,68 @@
         <v>18</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J123" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K123" s="5"/>
+      <c r="K123" s="5" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C124" s="5" t="n">
         <v>30</v>
       </c>
       <c r="D124" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J124" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K124" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="E124" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F124" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G124" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H124" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I124" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J124" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K124" s="5"/>
     </row>
     <row r="125" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C125" s="5" t="n">
         <v>30</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G125" s="4" t="s">
         <v>17</v>
@@ -4475,31 +4597,33 @@
         <v>18</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J125" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K125" s="5"/>
+      <c r="K125" s="5" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C126" s="5" t="n">
         <v>30</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G126" s="4" t="s">
         <v>17</v>
@@ -4508,31 +4632,33 @@
         <v>18</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J126" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K126" s="5"/>
+      <c r="K126" s="5" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C127" s="5" t="n">
         <v>30</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G127" s="4" t="s">
         <v>17</v>
@@ -4541,31 +4667,33 @@
         <v>18</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J127" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K127" s="5"/>
+      <c r="K127" s="5" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C128" s="5" t="n">
         <v>30</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G128" s="4" t="s">
         <v>17</v>
@@ -4574,31 +4702,33 @@
         <v>18</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J128" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K128" s="5"/>
+      <c r="K128" s="5" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="129" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C129" s="5" t="n">
         <v>30</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G129" s="4" t="s">
         <v>17</v>
@@ -4607,64 +4737,68 @@
         <v>18</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J129" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K129" s="5"/>
+      <c r="K129" s="5" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B130" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C130" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J130" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K130" s="5" t="n">
         <v>32</v>
       </c>
-      <c r="C130" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F130" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G130" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H130" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I130" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J130" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K130" s="5"/>
     </row>
     <row r="131" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C131" s="5" t="n">
         <v>30</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G131" s="4" t="s">
         <v>17</v>
@@ -4673,64 +4807,68 @@
         <v>18</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J131" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K131" s="5"/>
+      <c r="K131" s="5" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C132" s="5" t="n">
         <v>30</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F132" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J132" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K132" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="G132" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H132" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I132" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J132" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K132" s="5"/>
     </row>
     <row r="133" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C133" s="5" t="n">
         <v>30</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G133" s="4" t="s">
         <v>17</v>
@@ -4739,31 +4877,33 @@
         <v>18</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J133" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K133" s="5"/>
+      <c r="K133" s="5" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C134" s="9" t="n">
         <v>30</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G134" s="4" t="s">
         <v>17</v>
@@ -4772,64 +4912,68 @@
         <v>18</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J134" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K134" s="9"/>
+      <c r="K134" s="9" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C135" s="9" t="n">
         <v>30</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F135" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J135" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K135" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="G135" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H135" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I135" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J135" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K135" s="9"/>
     </row>
     <row r="136" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C136" s="10" t="n">
         <v>30</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E136" s="11" t="s">
-        <v>30</v>
+        <v>14</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G136" s="4" t="s">
         <v>17</v>
@@ -4838,89 +4982,91 @@
         <v>18</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J136" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K136" s="9"/>
+      <c r="K136" s="9" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="12"/>
-      <c r="B137" s="12"/>
+      <c r="A137" s="11"/>
+      <c r="B137" s="11"/>
       <c r="C137" s="10"/>
-      <c r="D137" s="12"/>
+      <c r="D137" s="11"/>
       <c r="E137" s="0"/>
-      <c r="F137" s="12"/>
-      <c r="G137" s="12"/>
-      <c r="H137" s="13"/>
-      <c r="I137" s="13"/>
-      <c r="J137" s="14"/>
+      <c r="F137" s="11"/>
+      <c r="G137" s="11"/>
+      <c r="H137" s="12"/>
+      <c r="I137" s="12"/>
+      <c r="J137" s="13"/>
       <c r="K137" s="10"/>
     </row>
     <row r="138" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="12"/>
-      <c r="B138" s="12"/>
+      <c r="A138" s="11"/>
+      <c r="B138" s="11"/>
       <c r="C138" s="10"/>
-      <c r="D138" s="12"/>
+      <c r="D138" s="11"/>
       <c r="E138" s="0"/>
-      <c r="F138" s="12"/>
-      <c r="G138" s="12"/>
-      <c r="H138" s="13"/>
-      <c r="I138" s="13"/>
-      <c r="J138" s="14"/>
+      <c r="F138" s="11"/>
+      <c r="G138" s="11"/>
+      <c r="H138" s="12"/>
+      <c r="I138" s="12"/>
+      <c r="J138" s="13"/>
       <c r="K138" s="10"/>
     </row>
     <row r="139" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="12"/>
-      <c r="B139" s="12"/>
+      <c r="A139" s="11"/>
+      <c r="B139" s="11"/>
       <c r="C139" s="10"/>
-      <c r="D139" s="12"/>
+      <c r="D139" s="11"/>
       <c r="E139" s="0"/>
-      <c r="F139" s="12"/>
-      <c r="G139" s="12"/>
-      <c r="H139" s="13"/>
-      <c r="I139" s="13"/>
-      <c r="J139" s="14"/>
+      <c r="F139" s="11"/>
+      <c r="G139" s="11"/>
+      <c r="H139" s="12"/>
+      <c r="I139" s="12"/>
+      <c r="J139" s="13"/>
       <c r="K139" s="10"/>
     </row>
     <row r="140" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="12"/>
-      <c r="B140" s="12"/>
+      <c r="A140" s="11"/>
+      <c r="B140" s="11"/>
       <c r="C140" s="10"/>
-      <c r="D140" s="12"/>
+      <c r="D140" s="11"/>
       <c r="E140" s="0"/>
-      <c r="F140" s="12"/>
-      <c r="G140" s="12"/>
-      <c r="H140" s="13"/>
-      <c r="I140" s="13"/>
-      <c r="J140" s="14"/>
+      <c r="F140" s="11"/>
+      <c r="G140" s="11"/>
+      <c r="H140" s="12"/>
+      <c r="I140" s="12"/>
+      <c r="J140" s="13"/>
       <c r="K140" s="10"/>
     </row>
     <row r="141" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="12"/>
-      <c r="B141" s="12"/>
+      <c r="A141" s="11"/>
+      <c r="B141" s="11"/>
       <c r="C141" s="10"/>
-      <c r="D141" s="12"/>
+      <c r="D141" s="11"/>
       <c r="E141" s="0"/>
-      <c r="F141" s="12"/>
-      <c r="G141" s="12"/>
-      <c r="H141" s="13"/>
-      <c r="I141" s="13"/>
-      <c r="J141" s="14"/>
+      <c r="F141" s="11"/>
+      <c r="G141" s="11"/>
+      <c r="H141" s="12"/>
+      <c r="I141" s="12"/>
+      <c r="J141" s="13"/>
       <c r="K141" s="10"/>
     </row>
     <row r="142" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="12"/>
-      <c r="B142" s="12"/>
+      <c r="A142" s="11"/>
+      <c r="B142" s="11"/>
       <c r="C142" s="10"/>
-      <c r="D142" s="12"/>
+      <c r="D142" s="11"/>
       <c r="E142" s="4"/>
-      <c r="F142" s="12"/>
-      <c r="G142" s="12"/>
-      <c r="H142" s="13"/>
-      <c r="I142" s="13"/>
-      <c r="J142" s="14"/>
+      <c r="F142" s="11"/>
+      <c r="G142" s="11"/>
+      <c r="H142" s="12"/>
+      <c r="I142" s="12"/>
+      <c r="J142" s="13"/>
       <c r="K142" s="10"/>
     </row>
   </sheetData>

--- a/excel/DatosEdu.xlsx
+++ b/excel/DatosEdu.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="31">
   <si>
     <t>Lugar de Partida</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>Tiempo</t>
-  </si>
-  <si>
-    <t>EDU</t>
   </si>
   <si>
     <t>Santa Cruz</t>
@@ -122,7 +119,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
@@ -144,6 +141,13 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -159,7 +163,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -172,6 +176,26 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -200,7 +224,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -249,12 +273,20 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -266,6 +298,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -274,10 +366,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K142"/>
+  <dimension ref="A1:M159"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -344,9 +436,7 @@
       <c r="K2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -360,34 +450,34 @@
     </row>
     <row r="4" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C4" s="7" t="n">
         <v>75</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>48</v>
@@ -395,34 +485,34 @@
     </row>
     <row r="5" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C5" s="7" t="n">
         <v>75</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>47</v>
@@ -430,34 +520,34 @@
     </row>
     <row r="6" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C6" s="7" t="n">
         <v>75</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K6" s="5" t="n">
         <v>44</v>
@@ -465,34 +555,34 @@
     </row>
     <row r="7" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C7" s="7" t="n">
         <v>75</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>44</v>
@@ -500,34 +590,34 @@
     </row>
     <row r="8" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C8" s="7" t="n">
         <v>75</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="F8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>42</v>
@@ -535,34 +625,34 @@
     </row>
     <row r="9" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C9" s="7" t="n">
         <v>75</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="F9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K9" s="5" t="n">
         <v>49</v>
@@ -570,34 +660,34 @@
     </row>
     <row r="10" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C10" s="7" t="n">
         <v>75</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="F10" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>50</v>
@@ -605,34 +695,34 @@
     </row>
     <row r="11" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C11" s="7" t="n">
         <v>75</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="F11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>52</v>
@@ -640,34 +730,34 @@
     </row>
     <row r="12" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C12" s="7" t="n">
         <v>75</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="F12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K12" s="5" t="n">
         <v>48</v>
@@ -675,34 +765,34 @@
     </row>
     <row r="13" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C13" s="7" t="n">
         <v>75</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="F13" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>44</v>
@@ -710,34 +800,34 @@
     </row>
     <row r="14" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C14" s="7" t="n">
         <v>75</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K14" s="5" t="n">
         <v>32</v>
@@ -745,34 +835,34 @@
     </row>
     <row r="15" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C15" s="7" t="n">
         <v>75</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K15" s="5" t="n">
         <v>30</v>
@@ -780,34 +870,34 @@
     </row>
     <row r="16" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C16" s="7" t="n">
         <v>75</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>38</v>
@@ -815,34 +905,34 @@
     </row>
     <row r="17" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C17" s="7" t="n">
         <v>75</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K17" s="5" t="n">
         <v>40</v>
@@ -850,34 +940,34 @@
     </row>
     <row r="18" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C18" s="7" t="n">
         <v>75</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K18" s="5" t="n">
         <v>41</v>
@@ -885,34 +975,34 @@
     </row>
     <row r="19" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C19" s="7" t="n">
         <v>75</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>42</v>
@@ -920,34 +1010,34 @@
     </row>
     <row r="20" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C20" s="7" t="n">
         <v>75</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K20" s="5" t="n">
         <v>45</v>
@@ -955,34 +1045,34 @@
     </row>
     <row r="21" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C21" s="7" t="n">
         <v>75</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K21" s="5" t="n">
         <v>43</v>
@@ -990,34 +1080,34 @@
     </row>
     <row r="22" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C22" s="7" t="n">
         <v>75</v>
       </c>
       <c r="D22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="G22" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>39</v>
@@ -1025,34 +1115,34 @@
     </row>
     <row r="23" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C23" s="7" t="n">
         <v>75</v>
       </c>
       <c r="D23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="G23" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K23" s="5" t="n">
         <v>45</v>
@@ -1060,34 +1150,34 @@
     </row>
     <row r="24" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C24" s="7" t="n">
         <v>75</v>
       </c>
       <c r="D24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="G24" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K24" s="5" t="n">
         <v>48</v>
@@ -1095,34 +1185,34 @@
     </row>
     <row r="25" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C25" s="7" t="n">
         <v>75</v>
       </c>
       <c r="D25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="G25" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>38</v>
@@ -1130,34 +1220,34 @@
     </row>
     <row r="26" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C26" s="7" t="n">
         <v>75</v>
       </c>
       <c r="D26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="G26" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K26" s="5" t="n">
         <v>36</v>
@@ -1165,34 +1255,34 @@
     </row>
     <row r="27" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C27" s="7" t="n">
         <v>75</v>
       </c>
       <c r="D27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="G27" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K27" s="5" t="n">
         <v>43</v>
@@ -1200,34 +1290,34 @@
     </row>
     <row r="28" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C28" s="7" t="n">
         <v>75</v>
       </c>
       <c r="D28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="G28" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>40</v>
@@ -1235,34 +1325,34 @@
     </row>
     <row r="29" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C29" s="7" t="n">
         <v>75</v>
       </c>
       <c r="D29" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="G29" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K29" s="5" t="n">
         <v>37</v>
@@ -1270,34 +1360,34 @@
     </row>
     <row r="30" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C30" s="7" t="n">
         <v>75</v>
       </c>
       <c r="D30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="G30" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K30" s="5" t="n">
         <v>41</v>
@@ -1305,34 +1395,34 @@
     </row>
     <row r="31" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C31" s="7" t="n">
         <v>75</v>
       </c>
       <c r="D31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="G31" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K31" s="5" t="n">
         <v>42</v>
@@ -1340,34 +1430,34 @@
     </row>
     <row r="32" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C32" s="7" t="n">
         <v>75</v>
       </c>
       <c r="D32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="G32" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K32" s="5" t="n">
         <v>44</v>
@@ -1375,34 +1465,34 @@
     </row>
     <row r="33" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C33" s="7" t="n">
         <v>75</v>
       </c>
       <c r="D33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="G33" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K33" s="5" t="n">
         <v>45</v>
@@ -1410,34 +1500,34 @@
     </row>
     <row r="34" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C34" s="7" t="n">
         <v>75</v>
       </c>
       <c r="D34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="G34" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K34" s="5" t="n">
         <v>55</v>
@@ -1445,34 +1535,34 @@
     </row>
     <row r="35" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C35" s="7" t="n">
         <v>75</v>
       </c>
       <c r="D35" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="G35" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K35" s="5" t="n">
         <v>57</v>
@@ -1480,34 +1570,34 @@
     </row>
     <row r="36" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C36" s="7" t="n">
         <v>75</v>
       </c>
       <c r="D36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="G36" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K36" s="5" t="n">
         <v>56</v>
@@ -1515,34 +1605,34 @@
     </row>
     <row r="37" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C37" s="7" t="n">
         <v>75</v>
       </c>
       <c r="D37" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="G37" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K37" s="5" t="n">
         <v>45</v>
@@ -1550,34 +1640,34 @@
     </row>
     <row r="38" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C38" s="7" t="n">
         <v>75</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K38" s="5" t="n">
         <v>46</v>
@@ -1585,34 +1675,34 @@
     </row>
     <row r="39" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C39" s="7" t="n">
         <v>75</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K39" s="5" t="n">
         <v>48</v>
@@ -1620,34 +1710,34 @@
     </row>
     <row r="40" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C40" s="7" t="n">
         <v>75</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K40" s="5" t="n">
         <v>49</v>
@@ -1655,34 +1745,34 @@
     </row>
     <row r="41" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C41" s="7" t="n">
         <v>75</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K41" s="5" t="n">
         <v>50</v>
@@ -1690,34 +1780,34 @@
     </row>
     <row r="42" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C42" s="7" t="n">
         <v>75</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E42" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F42" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="G42" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K42" s="5" t="n">
         <v>56</v>
@@ -1725,34 +1815,34 @@
     </row>
     <row r="43" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C43" s="7" t="n">
         <v>75</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E43" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F43" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="G43" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K43" s="5" t="n">
         <v>58</v>
@@ -1760,34 +1850,34 @@
     </row>
     <row r="44" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C44" s="7" t="n">
         <v>75</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K44" s="5" t="n">
         <v>46</v>
@@ -1795,34 +1885,34 @@
     </row>
     <row r="45" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C45" s="7" t="n">
         <v>75</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K45" s="5" t="n">
         <v>45</v>
@@ -1830,34 +1920,34 @@
     </row>
     <row r="46" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C46" s="7" t="n">
         <v>75</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K46" s="5" t="n">
         <v>50</v>
@@ -1865,34 +1955,34 @@
     </row>
     <row r="47" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C47" s="7" t="n">
         <v>75</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K47" s="5" t="n">
         <v>51</v>
@@ -1900,34 +1990,34 @@
     </row>
     <row r="48" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C48" s="7" t="n">
         <v>75</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K48" s="5" t="n">
         <v>45</v>
@@ -1935,34 +2025,34 @@
     </row>
     <row r="49" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C49" s="7" t="n">
         <v>75</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K49" s="5" t="n">
         <v>44</v>
@@ -1970,34 +2060,34 @@
     </row>
     <row r="50" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C50" s="7" t="n">
         <v>75</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K50" s="5" t="n">
         <v>43</v>
@@ -2005,34 +2095,34 @@
     </row>
     <row r="51" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C51" s="7" t="n">
         <v>75</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J51" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K51" s="5" t="n">
         <v>41</v>
@@ -2040,34 +2130,34 @@
     </row>
     <row r="52" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C52" s="7" t="n">
         <v>75</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K52" s="5" t="n">
         <v>47</v>
@@ -2075,34 +2165,34 @@
     </row>
     <row r="53" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C53" s="7" t="n">
         <v>75</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J53" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K53" s="5" t="n">
         <v>45</v>
@@ -2110,34 +2200,34 @@
     </row>
     <row r="54" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C54" s="7" t="n">
         <v>75</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K54" s="5" t="n">
         <v>45</v>
@@ -2158,34 +2248,34 @@
     </row>
     <row r="56" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="F56" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J56" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K56" s="5" t="n">
         <v>26</v>
@@ -2193,34 +2283,34 @@
     </row>
     <row r="57" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C57" s="5" t="n">
         <v>30</v>
       </c>
       <c r="D57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E57" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="F57" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J57" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K57" s="5" t="n">
         <v>27</v>
@@ -2228,34 +2318,34 @@
     </row>
     <row r="58" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E58" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="F58" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K58" s="5" t="n">
         <v>29</v>
@@ -2263,34 +2353,34 @@
     </row>
     <row r="59" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D59" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E59" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="F59" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J59" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K59" s="5" t="n">
         <v>28</v>
@@ -2298,34 +2388,34 @@
     </row>
     <row r="60" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D60" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E60" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="F60" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J60" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K60" s="5" t="n">
         <v>25</v>
@@ -2333,34 +2423,34 @@
     </row>
     <row r="61" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D61" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E61" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="F61" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J61" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K61" s="5" t="n">
         <v>29</v>
@@ -2368,34 +2458,34 @@
     </row>
     <row r="62" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D62" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E62" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="F62" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J62" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K62" s="5" t="n">
         <v>33</v>
@@ -2403,34 +2493,34 @@
     </row>
     <row r="63" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D63" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E63" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="F63" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K63" s="5" t="n">
         <v>31</v>
@@ -2438,34 +2528,34 @@
     </row>
     <row r="64" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D64" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E64" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="F64" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K64" s="5" t="n">
         <v>27</v>
@@ -2473,34 +2563,34 @@
     </row>
     <row r="65" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D65" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E65" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="F65" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J65" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K65" s="5" t="n">
         <v>26</v>
@@ -2508,34 +2598,34 @@
     </row>
     <row r="66" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J66" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K66" s="5" t="n">
         <v>30</v>
@@ -2543,34 +2633,34 @@
     </row>
     <row r="67" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C67" s="5" t="n">
         <v>30</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J67" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K67" s="5" t="n">
         <v>32</v>
@@ -2578,34 +2668,34 @@
     </row>
     <row r="68" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C68" s="5" t="n">
         <v>30</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J68" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K68" s="5" t="n">
         <v>35</v>
@@ -2613,34 +2703,34 @@
     </row>
     <row r="69" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C69" s="5" t="n">
         <v>30</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J69" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K69" s="5" t="n">
         <v>27</v>
@@ -2648,34 +2738,34 @@
     </row>
     <row r="70" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C70" s="5" t="n">
         <v>30</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J70" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K70" s="5" t="n">
         <v>25</v>
@@ -2683,34 +2773,34 @@
     </row>
     <row r="71" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C71" s="5" t="n">
         <v>30</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J71" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K71" s="5" t="n">
         <v>26</v>
@@ -2718,34 +2808,34 @@
     </row>
     <row r="72" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C72" s="5" t="n">
         <v>30</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J72" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K72" s="5" t="n">
         <v>33</v>
@@ -2753,34 +2843,34 @@
     </row>
     <row r="73" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J73" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K73" s="5" t="n">
         <v>28</v>
@@ -2788,34 +2878,34 @@
     </row>
     <row r="74" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K74" s="5" t="n">
         <v>29</v>
@@ -2823,34 +2913,34 @@
     </row>
     <row r="75" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J75" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K75" s="5" t="n">
         <v>27</v>
@@ -2858,34 +2948,34 @@
     </row>
     <row r="76" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K76" s="5" t="n">
         <v>30</v>
@@ -2893,34 +2983,34 @@
     </row>
     <row r="77" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J77" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K77" s="5" t="n">
         <v>31</v>
@@ -2928,34 +3018,34 @@
     </row>
     <row r="78" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J78" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K78" s="5" t="n">
         <v>33</v>
@@ -2963,34 +3053,34 @@
     </row>
     <row r="79" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J79" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K79" s="5" t="n">
         <v>34</v>
@@ -2998,34 +3088,34 @@
     </row>
     <row r="80" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J80" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K80" s="5" t="n">
         <v>38</v>
@@ -3033,34 +3123,34 @@
     </row>
     <row r="81" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C81" s="5" t="n">
         <v>30</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J81" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K81" s="5" t="n">
         <v>35</v>
@@ -3068,34 +3158,34 @@
     </row>
     <row r="82" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J82" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K82" s="5" t="n">
         <v>29</v>
@@ -3103,34 +3193,34 @@
     </row>
     <row r="83" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J83" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K83" s="5" t="n">
         <v>36</v>
@@ -3138,34 +3228,34 @@
     </row>
     <row r="84" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J84" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K84" s="5" t="n">
         <v>25</v>
@@ -3173,34 +3263,34 @@
     </row>
     <row r="85" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J85" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K85" s="5" t="n">
         <v>29</v>
@@ -3208,34 +3298,34 @@
     </row>
     <row r="86" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J86" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K86" s="5" t="n">
         <v>30</v>
@@ -3243,34 +3333,34 @@
     </row>
     <row r="87" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J87" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K87" s="5" t="n">
         <v>31</v>
@@ -3278,34 +3368,34 @@
     </row>
     <row r="88" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C88" s="5" t="n">
         <v>30</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J88" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K88" s="5" t="n">
         <v>26</v>
@@ -3313,34 +3403,34 @@
     </row>
     <row r="89" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J89" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K89" s="5" t="n">
         <v>25</v>
@@ -3348,34 +3438,34 @@
     </row>
     <row r="90" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J90" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K90" s="5" t="n">
         <v>26</v>
@@ -3383,34 +3473,34 @@
     </row>
     <row r="91" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C91" s="5" t="n">
         <v>30</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J91" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K91" s="5" t="n">
         <v>27</v>
@@ -3418,34 +3508,34 @@
     </row>
     <row r="92" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J92" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K92" s="5" t="n">
         <v>29</v>
@@ -3453,34 +3543,34 @@
     </row>
     <row r="93" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J93" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K93" s="5" t="n">
         <v>30</v>
@@ -3488,34 +3578,34 @@
     </row>
     <row r="94" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J94" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K94" s="5" t="n">
         <v>32</v>
@@ -3523,34 +3613,34 @@
     </row>
     <row r="95" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J95" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K95" s="5" t="n">
         <v>33</v>
@@ -3558,34 +3648,34 @@
     </row>
     <row r="96" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J96" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K96" s="5" t="n">
         <v>34</v>
@@ -3593,34 +3683,34 @@
     </row>
     <row r="97" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J97" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K97" s="5" t="n">
         <v>24</v>
@@ -3628,34 +3718,34 @@
     </row>
     <row r="98" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J98" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K98" s="5" t="n">
         <v>26</v>
@@ -3663,34 +3753,34 @@
     </row>
     <row r="99" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C99" s="5" t="n">
         <v>30</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J99" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K99" s="5" t="n">
         <v>22</v>
@@ -3698,34 +3788,34 @@
     </row>
     <row r="100" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J100" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K100" s="5" t="n">
         <v>24</v>
@@ -3733,34 +3823,34 @@
     </row>
     <row r="101" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J101" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K101" s="5" t="n">
         <v>21</v>
@@ -3768,34 +3858,34 @@
     </row>
     <row r="102" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J102" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K102" s="5" t="n">
         <v>29</v>
@@ -3803,34 +3893,34 @@
     </row>
     <row r="103" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J103" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K103" s="5" t="n">
         <v>31</v>
@@ -3838,34 +3928,34 @@
     </row>
     <row r="104" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J104" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K104" s="5" t="n">
         <v>34</v>
@@ -3873,34 +3963,34 @@
     </row>
     <row r="105" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D105" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E105" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="G105" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J105" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K105" s="5" t="n">
         <v>40</v>
@@ -3908,34 +3998,34 @@
     </row>
     <row r="106" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D106" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E106" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="G106" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J106" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K106" s="5" t="n">
         <v>38</v>
@@ -3943,34 +4033,34 @@
     </row>
     <row r="107" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D107" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F107" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E107" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="G107" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J107" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K107" s="5" t="n">
         <v>35</v>
@@ -3978,34 +4068,34 @@
     </row>
     <row r="108" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D108" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F108" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E108" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="G108" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J108" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K108" s="5" t="n">
         <v>45</v>
@@ -4013,34 +4103,34 @@
     </row>
     <row r="109" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D109" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F109" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E109" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="G109" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J109" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K109" s="5" t="n">
         <v>30</v>
@@ -4048,34 +4138,34 @@
     </row>
     <row r="110" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D110" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F110" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E110" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="G110" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J110" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K110" s="5" t="n">
         <v>31</v>
@@ -4083,34 +4173,34 @@
     </row>
     <row r="111" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D111" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F111" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E111" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="G111" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J111" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K111" s="5" t="n">
         <v>32</v>
@@ -4118,34 +4208,34 @@
     </row>
     <row r="112" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J112" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K112" s="5" t="n">
         <v>33</v>
@@ -4153,34 +4243,34 @@
     </row>
     <row r="113" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J113" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K113" s="5" t="n">
         <v>38</v>
@@ -4188,34 +4278,34 @@
     </row>
     <row r="114" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J114" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K114" s="5" t="n">
         <v>42</v>
@@ -4223,34 +4313,34 @@
     </row>
     <row r="115" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C115" s="5" t="n">
         <v>30</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J115" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K115" s="5" t="n">
         <v>40</v>
@@ -4258,34 +4348,34 @@
     </row>
     <row r="116" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C116" s="5" t="n">
         <v>30</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J116" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K116" s="5" t="n">
         <v>42</v>
@@ -4293,34 +4383,34 @@
     </row>
     <row r="117" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C117" s="5" t="n">
         <v>30</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J117" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K117" s="5" t="n">
         <v>44</v>
@@ -4328,34 +4418,34 @@
     </row>
     <row r="118" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C118" s="5" t="n">
         <v>30</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J118" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K118" s="5" t="n">
         <v>45</v>
@@ -4363,34 +4453,34 @@
     </row>
     <row r="119" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C119" s="5" t="n">
         <v>30</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J119" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K119" s="5" t="n">
         <v>39</v>
@@ -4398,34 +4488,34 @@
     </row>
     <row r="120" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C120" s="5" t="n">
         <v>30</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J120" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K120" s="5" t="n">
         <v>50</v>
@@ -4433,34 +4523,34 @@
     </row>
     <row r="121" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C121" s="5" t="n">
         <v>30</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J121" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K121" s="5" t="n">
         <v>48</v>
@@ -4468,34 +4558,34 @@
     </row>
     <row r="122" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C122" s="5" t="n">
         <v>30</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E122" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F122" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F122" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="G122" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J122" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K122" s="5" t="n">
         <v>43</v>
@@ -4503,34 +4593,34 @@
     </row>
     <row r="123" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C123" s="5" t="n">
         <v>30</v>
       </c>
       <c r="D123" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F123" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E123" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F123" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="G123" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J123" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K123" s="5" t="n">
         <v>38</v>
@@ -4538,34 +4628,34 @@
     </row>
     <row r="124" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C124" s="5" t="n">
         <v>30</v>
       </c>
       <c r="D124" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F124" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E124" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F124" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="G124" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J124" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K124" s="5" t="n">
         <v>35</v>
@@ -4573,34 +4663,34 @@
     </row>
     <row r="125" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C125" s="5" t="n">
         <v>30</v>
       </c>
       <c r="D125" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F125" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E125" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F125" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="G125" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J125" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K125" s="5" t="n">
         <v>38</v>
@@ -4608,34 +4698,34 @@
     </row>
     <row r="126" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C126" s="5" t="n">
         <v>30</v>
       </c>
       <c r="D126" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F126" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E126" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F126" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="G126" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J126" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K126" s="5" t="n">
         <v>38</v>
@@ -4643,34 +4733,34 @@
     </row>
     <row r="127" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C127" s="5" t="n">
         <v>30</v>
       </c>
       <c r="D127" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F127" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E127" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="G127" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J127" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K127" s="5" t="n">
         <v>36</v>
@@ -4678,34 +4768,34 @@
     </row>
     <row r="128" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C128" s="5" t="n">
         <v>30</v>
       </c>
       <c r="D128" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F128" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E128" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="G128" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J128" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K128" s="5" t="n">
         <v>33</v>
@@ -4713,34 +4803,34 @@
     </row>
     <row r="129" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C129" s="5" t="n">
         <v>30</v>
       </c>
       <c r="D129" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F129" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E129" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F129" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="G129" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J129" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K129" s="5" t="n">
         <v>30</v>
@@ -4748,34 +4838,34 @@
     </row>
     <row r="130" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C130" s="5" t="n">
         <v>30</v>
       </c>
       <c r="D130" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F130" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E130" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F130" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="G130" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J130" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K130" s="5" t="n">
         <v>32</v>
@@ -4783,34 +4873,34 @@
     </row>
     <row r="131" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C131" s="5" t="n">
         <v>30</v>
       </c>
       <c r="D131" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F131" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E131" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F131" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="G131" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J131" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K131" s="5" t="n">
         <v>31</v>
@@ -4818,34 +4908,34 @@
     </row>
     <row r="132" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C132" s="5" t="n">
         <v>30</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J132" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K132" s="5" t="n">
         <v>25</v>
@@ -4853,34 +4943,34 @@
     </row>
     <row r="133" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C133" s="5" t="n">
         <v>30</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J133" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K133" s="5" t="n">
         <v>22</v>
@@ -4888,34 +4978,34 @@
     </row>
     <row r="134" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C134" s="9" t="n">
         <v>30</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J134" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K134" s="9" t="n">
         <v>28</v>
@@ -4923,34 +5013,34 @@
     </row>
     <row r="135" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C135" s="9" t="n">
         <v>30</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J135" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K135" s="9" t="n">
         <v>25</v>
@@ -4958,34 +5048,34 @@
     </row>
     <row r="136" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C136" s="10" t="n">
         <v>30</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J136" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K136" s="9" t="n">
         <v>26</v>
@@ -4996,78 +5086,827 @@
       <c r="B137" s="11"/>
       <c r="C137" s="10"/>
       <c r="D137" s="11"/>
-      <c r="E137" s="0"/>
+      <c r="E137" s="12"/>
       <c r="F137" s="11"/>
       <c r="G137" s="11"/>
-      <c r="H137" s="12"/>
-      <c r="I137" s="12"/>
-      <c r="J137" s="13"/>
+      <c r="H137" s="13"/>
+      <c r="I137" s="13"/>
+      <c r="J137" s="14"/>
       <c r="K137" s="10"/>
     </row>
     <row r="138" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="11"/>
-      <c r="B138" s="11"/>
-      <c r="C138" s="10"/>
-      <c r="D138" s="11"/>
-      <c r="E138" s="0"/>
-      <c r="F138" s="11"/>
-      <c r="G138" s="11"/>
-      <c r="H138" s="12"/>
-      <c r="I138" s="12"/>
-      <c r="J138" s="13"/>
-      <c r="K138" s="10"/>
+      <c r="A138" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B138" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J138" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K138" s="5" t="n">
+        <v>39</v>
+      </c>
+      <c r="L138" s="0"/>
+      <c r="M138" s="0"/>
     </row>
     <row r="139" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="11"/>
-      <c r="B139" s="11"/>
-      <c r="C139" s="10"/>
-      <c r="D139" s="11"/>
-      <c r="E139" s="0"/>
-      <c r="F139" s="11"/>
-      <c r="G139" s="11"/>
-      <c r="H139" s="12"/>
-      <c r="I139" s="12"/>
-      <c r="J139" s="13"/>
-      <c r="K139" s="10"/>
+      <c r="A139" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B139" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I139" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J139" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K139" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="L139" s="0"/>
+      <c r="M139" s="0"/>
     </row>
     <row r="140" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="11"/>
-      <c r="B140" s="11"/>
-      <c r="C140" s="10"/>
-      <c r="D140" s="11"/>
-      <c r="E140" s="0"/>
-      <c r="F140" s="11"/>
-      <c r="G140" s="11"/>
-      <c r="H140" s="12"/>
-      <c r="I140" s="12"/>
-      <c r="J140" s="13"/>
-      <c r="K140" s="10"/>
+      <c r="A140" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B140" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J140" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K140" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="L140" s="0"/>
+      <c r="M140" s="0"/>
     </row>
     <row r="141" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="11"/>
-      <c r="B141" s="11"/>
-      <c r="C141" s="10"/>
-      <c r="D141" s="11"/>
-      <c r="E141" s="0"/>
-      <c r="F141" s="11"/>
-      <c r="G141" s="11"/>
-      <c r="H141" s="12"/>
-      <c r="I141" s="12"/>
-      <c r="J141" s="13"/>
-      <c r="K141" s="10"/>
+      <c r="A141" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B141" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J141" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K141" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="L141" s="0"/>
+      <c r="M141" s="0"/>
     </row>
     <row r="142" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="11"/>
-      <c r="B142" s="11"/>
-      <c r="C142" s="10"/>
-      <c r="D142" s="11"/>
-      <c r="E142" s="4"/>
-      <c r="F142" s="11"/>
-      <c r="G142" s="11"/>
-      <c r="H142" s="12"/>
-      <c r="I142" s="12"/>
-      <c r="J142" s="13"/>
-      <c r="K142" s="10"/>
+      <c r="A142" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B142" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I142" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J142" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K142" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="L142" s="0"/>
+      <c r="M142" s="0"/>
+    </row>
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B143" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C143" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I143" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J143" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K143" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="L143" s="0"/>
+      <c r="M143" s="0"/>
+    </row>
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B144" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I144" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J144" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K144" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="L144" s="0"/>
+      <c r="M144" s="0"/>
+    </row>
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B145" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I145" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J145" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K145" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="L145" s="0"/>
+      <c r="M145" s="0"/>
+    </row>
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B146" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C146" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I146" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J146" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K146" s="5" t="n">
+        <v>47</v>
+      </c>
+      <c r="L146" s="0"/>
+      <c r="M146" s="0"/>
+    </row>
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B147" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C147" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H147" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I147" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J147" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K147" s="5" t="n">
+        <v>48</v>
+      </c>
+      <c r="L147" s="0"/>
+      <c r="M147" s="0"/>
+    </row>
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B148" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C148" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H148" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I148" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J148" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K148" s="5" t="n">
+        <v>49</v>
+      </c>
+      <c r="L148" s="0"/>
+      <c r="M148" s="0"/>
+    </row>
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B149" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C149" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I149" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J149" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K149" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="L149" s="0"/>
+      <c r="M149" s="0"/>
+    </row>
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B150" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C150" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J150" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K150" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="L150" s="0"/>
+      <c r="M150" s="0"/>
+    </row>
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B151" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H151" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J151" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K151" s="5" t="n">
+        <v>52</v>
+      </c>
+      <c r="L151" s="0"/>
+      <c r="M151" s="0"/>
+    </row>
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B152" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H152" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J152" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K152" s="5" t="n">
+        <v>53</v>
+      </c>
+      <c r="L152" s="0"/>
+      <c r="M152" s="0"/>
+    </row>
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B153" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C153" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J153" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K153" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="L153" s="0"/>
+      <c r="M153" s="0"/>
+    </row>
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B154" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C154" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G154" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J154" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K154" s="5" t="n">
+        <v>55</v>
+      </c>
+      <c r="L154" s="0"/>
+      <c r="M154" s="0"/>
+    </row>
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B155" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C155" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I155" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J155" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K155" s="5" t="n">
+        <v>56</v>
+      </c>
+      <c r="L155" s="0"/>
+      <c r="M155" s="0"/>
+    </row>
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B156" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H156" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I156" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J156" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K156" s="5" t="n">
+        <v>57</v>
+      </c>
+      <c r="L156" s="0"/>
+      <c r="M156" s="0"/>
+    </row>
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B157" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C157" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J157" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K157" s="5" t="n">
+        <v>58</v>
+      </c>
+      <c r="L157" s="0"/>
+      <c r="M157" s="0"/>
+    </row>
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B158" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C158" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G158" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H158" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I158" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J158" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K158" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="L158" s="0"/>
+      <c r="M158" s="0"/>
+    </row>
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B159" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G159" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J159" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K159" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="L159" s="0"/>
+      <c r="M159" s="0"/>
     </row>
   </sheetData>
   <mergeCells count="2">
